--- a/cases/cases/test_openapi_cases.xlsx
+++ b/cases/cases/test_openapi_cases.xlsx
@@ -2108,7 +2108,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
@@ -2155,95 +2155,100 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
-          <t>Method</t>
+          <t>Time</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Url</t>
+          <t>method</t>
         </is>
       </c>
       <c r="G1" s="2" t="inlineStr">
         <is>
-          <t>Headers</t>
+          <t>url</t>
         </is>
       </c>
       <c r="H1" s="2" t="inlineStr">
         <is>
+          <t>headers</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
           <t>Headers是否加密</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>params</t>
         </is>
       </c>
-      <c r="J1" s="11" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>request_data_type</t>
         </is>
       </c>
-      <c r="K1" s="2" t="inlineStr">
-        <is>
-          <t>Request Data</t>
-        </is>
-      </c>
       <c r="L1" s="2" t="inlineStr">
         <is>
+          <t>request_data</t>
+        </is>
+      </c>
+      <c r="M1" s="2" t="inlineStr">
+        <is>
           <t>请求参数是否加密</t>
         </is>
       </c>
-      <c r="M1" s="2" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>提取请求参数</t>
         </is>
       </c>
-      <c r="N1" s="2" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Jsonpath</t>
         </is>
       </c>
-      <c r="O1" s="2" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>正则表达式</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>正则变量</t>
         </is>
       </c>
-      <c r="Q1" s="2" t="inlineStr">
+      <c r="R1" s="2" t="inlineStr">
         <is>
           <t>绝对路径表达式</t>
         </is>
       </c>
-      <c r="R1" s="2" t="inlineStr">
+      <c r="S1" s="2" t="inlineStr">
         <is>
           <t>SQL</t>
         </is>
       </c>
-      <c r="S1" s="2" t="inlineStr">
+      <c r="T1" s="2" t="inlineStr">
         <is>
           <t>sql变量</t>
         </is>
       </c>
-      <c r="T1" s="2" t="inlineStr">
+      <c r="U1" s="2" t="inlineStr">
         <is>
           <t>预期结果</t>
         </is>
       </c>
-      <c r="U1" s="2" t="inlineStr">
+      <c r="V1" s="2" t="inlineStr">
         <is>
           <t>响应结果</t>
         </is>
       </c>
-      <c r="V1" s="2" t="inlineStr">
+      <c r="W1" s="2" t="inlineStr">
         <is>
           <t>断言结果</t>
         </is>
       </c>
-      <c r="W1" s="2" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>报错日志</t>
         </is>
@@ -2255,12 +2260,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>loginByNotBip(bim)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -2270,32 +2275,40 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{{url}}/bsp/test/user/ugs/auth/loginByNotBip</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>/auth/loginByNotBip</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>{"Content-Type": "application/json", "BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>json</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>{"account": "18127813600", "password": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8="}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{"account": "{{uname}}", "password": "{{pwd}}"}</t>
+        </is>
+      </c>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -2307,6 +2320,7 @@
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
     </row>
     <row r="3" ht="26" customFormat="1" customHeight="1" s="9">
       <c r="A3" t="n">
@@ -2314,12 +2328,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>获取需求采购列表(默认条件查询-成功)</t>
+          <t>refreshTokenByTenant(bim)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2329,32 +2343,36 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{{url}}/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/pages?t=1681310676000</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{"BSP_TOKEN": "{{bsToken}}"}</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>/auth/refreshTokenByTenant</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ID": "{{bsp_user_id}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>{"ncCode": "", "applyTimeBegin": "", "applyTimeEnd": "", "applyUserName": "", "auditStatus": "", "buildingCode": "", "code": "RE202210270003", "name": "", "purchaseType": "", "size": 10, "current": 1, "projectId": "104966"}</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr"/>
+          <t>{"bspToken": "{{token}}", "tenantId": "{{bsp_user_tenant}}", "userId": "{{bsp_user_id}}"}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -2366,6 +2384,7 @@
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
     </row>
     <row r="4" ht="26" customHeight="1" s="1">
       <c r="A4" t="n">
@@ -2373,12 +2392,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>获取请购详情</t>
+          <t>getUserInfoByBspToken(bim)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -2388,21 +2407,48 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/detail?t=&amp;isEdit=&amp;requireId=5804&amp;projectId=</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{"BSP_TOKEN": "aba920e63584c3b1fef3cb4c498bca44"}</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>/auth/getUserInfoByBspToken</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{"bspToken": "{{token}}"}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
     </row>
     <row r="5" ht="115.5" customHeight="1" s="1">
       <c r="A5" t="n">
@@ -2410,12 +2456,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>文件上传</t>
+          <t>getUserDeptByUserAccount(bim)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -2425,32 +2471,40 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>/ums/v1/feign/omp/user/getUserDeptByUserAccount</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>{"file": "test.jpeg"}</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -2462,6 +2516,7 @@
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
     </row>
     <row r="6" ht="82.5" customHeight="1" s="1">
       <c r="A6" t="n">
@@ -2469,12 +2524,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>findUserProjectList(bim)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -2484,32 +2539,36 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>/ums/v1/user/project/findUserProjectList</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>files</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{"file": "/C:/Users/chenyongzhi11/Desktop/微信图片_20221025174254.jpg"}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -2521,6 +2580,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" s="1">
       <c r="A7" t="n">
@@ -2528,12 +2588,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>平台登录</t>
+          <t>get app_token</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -2543,32 +2603,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/index/</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>/opi/developer/applogin</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>{"t": "1655973371000"}</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>{"username": "admin", "password": "3306", "csrfmiddlewaretoken": "av1VLobtvmrqvvoDRygqIqBr8QOa2ExxzcB1zVpHRKXXvOtoDzhmuLapxdP8uJj7"}</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr"/>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -2580,6 +2648,7 @@
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2587,12 +2656,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新增项目</t>
+          <t>getMobile(bim)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -2602,32 +2671,36 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/project/create_project/</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>/ums/v1/feign/omp/user/getMobile</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+          <t>{"userId": "60531066"}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
         <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -2639,6 +2712,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -2646,12 +2720,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>查询项目列表信息</t>
+          <t>getDirectCompanyOrgNode</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -2661,21 +2735,52 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/project/get_projects/</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
+          <t>/ums/v1/feign/omp/org/getDirectCompanyOrgNode</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2683,12 +2788,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>新增模块</t>
+          <t>getUserOrg</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2698,32 +2803,36 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/module/create_modul/</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>/ums/v1/user/org/getUserOrg</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -2735,6 +2844,7 @@
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -2742,12 +2852,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>查询模块列表</t>
+          <t>findUserAppListByOrg</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2757,21 +2867,48 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/module/get_module/</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>/ums/v1/user/app/findUserAppListByOrg</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{"orgId": "22071803251232000"}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
           <t>{}</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2779,12 +2916,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>findOrgListByProjectId</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2794,32 +2931,40 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>{{url}}/bsp/test/user/ugs/auth/loginByNotBip</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>/ums/v1/feign/omp/org/findOrgListByProjectId</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr">
         <is>
+          <t>{"t": "1663666068000"}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>json</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>{"account": "18127813600", "password": "WD6Y0+LJLHXuFaplzUtSCnwktA7KgXCpjCS+OVvIFGTEoz2gbqK2oOOuJUf7ao0m2YYGiGi1pQTMBnkrxIY1cztGYbVp97kvIQwZLN4UhrOAe3h1asY/NLnDwB/byl7agcGv9WI4oy6B1Z93HVHmQiAKn7QqnDgPVITu4jthNc8="}</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -2831,6 +2976,7 @@
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2838,12 +2984,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>获取需求采购列表(默认条件查询-成功)</t>
+          <t>获取花名册领用人员</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2853,32 +2999,36 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>{{url}}/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/pages?t=1681310676000</t>
+          <t>get</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{"BSP_TOKEN": "{{bsToken}}"}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>/ums/v1/tenant/projectOrg/roster/pageNotMerge</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>{"ncCode": "", "applyTimeBegin": "", "applyTimeEnd": "", "applyUserName": "", "auditStatus": "", "buildingCode": "", "code": "RE202210270003", "name": "", "purchaseType": "", "size": 10, "current": 1, "projectId": "104966"}</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr"/>
+          <t>{"curPage": "1", "pageSize": "10"}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -2890,6 +3040,7 @@
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -2897,12 +3048,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>获取请购详情</t>
+          <t>获取需求采购列表</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2912,21 +3063,52 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>GET</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/test/user/ugs/ibs/api/ibs-material/material/jobRequire/detail?t=&amp;isEdit=&amp;requireId=5804&amp;projectId=</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{"BSP_TOKEN": "aba920e63584c3b1fef3cb4c498bca44"}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>/ibs/api/ibs-material/material/jobRequire/pages</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{"t": "1642056569000"}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -2934,12 +3116,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>文件上传</t>
+          <t>需求请购-文件上传</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2949,32 +3131,40 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>/ibs/api/ibs-file/upload/permanent</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr">
         <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>files</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>{"file": "test.jpeg"}</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{"file": "file://C:\\Users\\chenyongzhi11\\Pictures\\\u6d4b\u8bd5\u56fe\u7247\\DSC_0224.JPG"}</t>
+        </is>
+      </c>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -2986,6 +3176,7 @@
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -2993,12 +3184,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>开发者入口登录</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3008,32 +3199,40 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>https://bimdc.bzlrobot.com/bsp/opi/document/v1/document/fileStore/uploadFile</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{"Accept": "*/*", "Accept-Language": "zh-CN,zh;q=0.9,en;q=0.8,en-GB;q=0.7,en-US;q=0.6", "Connection": "keep-alive", "Cookie": "sensorsdata2015jssdkcross=%7B%22distinct_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%2C%22first_id%22%3A%22%22%2C%22props%22%3A%7B%22%24latest_traffic_source_type%22%3A%22%E5%BC%95%E8%8D%90%E6%B5%81%E9%87%8F%22%2C%22%24latest_search_keyword%22%3A%22%E6%9C%AA%E5%8F%96%E5%88%B0%E5%80%BC%22%2C%22%24latest_referrer%22%3A%22https%3A%2F%2Flogin.countrygarden.com.cn%2F%22%7D%2C%22identities%22%3A%22eyIkaWRlbnRpdHlfY29va2llX2lkIjoiMTg3NmE3ZjFlMGYxMzY4LTA5ZmJmZjI4M2U1ZGY5LTRjNjU3YjU4LTIwNzM2MDAtMTg3NmE3ZjFlMTBlODYifQ%3D%3D%22%2C%22history_login_id%22%3A%7B%22name%22%3A%22%22%2C%22value%22%3A%22%22%7D%2C%22%24device_id%22%3A%221876a7f1e0f1368-09fbff283e5df9-4c657b58-2073600-1876a7f1e10e86%22%7D; x-access-token=9f576f5f914c6e29584f82e5c5fe9c92", "Origin": "https://bimdc.bzlrobot.com", "Sec-Fetch-Dest": "empty", "Sec-Fetch-Mode": "cors", "Sec-Fetch-Site": "same-origin", "User-Agent": "Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/115.0.0.0 Safari/537.36 Edg/115.0.0.0", "app_token": "A4C419A561A3404A86A33628A3F681C3", "sec-ch-ua": "\"Not/A)Brand\";v=\"99\", \"Microsoft Edge\";v=\"115\", \"Chromium\";v=\"115\"", "sec-ch-ua-mobile": "?0", "sec-ch-ua-platform": "\"Windows\""}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>/bsp/platform/pgs/auth/platform/common/login</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>files</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>{"file": "/C:/Users/chenyongzhi11/Desktop/微信图片_20221025174254.jpg"}</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr"/>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{"account": "13709685270", "password": "dehTueriLaVYLw2+2gUwPxcRuXP30RX5w0yh7T5o1a00dXv/munE8e573TPsDP4DdwdjdHrfHBlGQOA8+Ppzzbrgy7mHEvnrv3F2urBflbFvU8Hc4TqljxIh+6fDzhtgdgeDYwi6Hnw13iv+36wfnJ8jFH4ygxHEphlEntMBk3A="}</t>
+        </is>
+      </c>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -3045,6 +3244,7 @@
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3052,12 +3252,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>postman</t>
+          <t>openapi</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>平台登录</t>
+          <t>直接审结</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3067,32 +3267,40 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>POST</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>http://127.0.0.1:8000/index/</t>
+          <t>post</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>/ibs/api/ibs-material/material/jobRequire/doAudit</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>{"BSP_TOKEN": "{{token}}", "BSP_USER_ENV_ID": "{{BSP_USER_ENV_ID}}", "BSP_USER_ID": "{{bsp_user_id}}", "BSP_USER_TENANT": "{{BSP_USER_TENANT}}", "bzlrobot-authorization": "{{bzlrobot_authorization}}", "projectId": "{{cl_projectId}}", "projectName": "{{projectName|encodeURIComponent}}", "BSP_COMPANY_NAME": "{{orgName|encodeURIComponent}}", "BSP_COMPANY_ID": "{{orgId}}", "User-Agent": " Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/110.0.0.0 Safari/537.36", "Bsp_user_app_id": "{{Bsp_user_app_id}}"}</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>{}</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>{"username": "admin", "password": "3306", "csrfmiddlewaretoken": "av1VLobtvmrqvvoDRygqIqBr8QOa2ExxzcB1zVpHRKXXvOtoDzhmuLapxdP8uJj7"}</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr"/>
+          <t>json</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -3104,198 +3312,7 @@
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新增项目</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/create_project/</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>查询项目列表信息</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/project/get_projects/</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>新增模块</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>POST</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/create_modul/</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>{"Cookie": "sessionid=zjs3ytyud4hh952ongttt6vvx3fihlqv"}</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>json</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>postman</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>查询模块列表</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>GET</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>http://127.0.0.1:8000/module/get_module/</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6">
